--- a/Pile.xlsx
+++ b/Pile.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABEACE02EC5A7B1A4F265BDE58A1" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{631A2261-AE0F-444F-8AA0-296166F9A604}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABEACE02EC5A7B1A4F265BDE58A1" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5ACCE008-F32D-44B2-8A5A-3E8662C35429}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$149</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="11">
   <si>
     <t>Foundation</t>
   </si>
@@ -32,6 +35,27 @@
   </si>
   <si>
     <t>pile</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>on-going</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
 </sst>
 </file>
@@ -349,18 +373,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D149"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -373,10 +399,16 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -387,10 +419,16 @@
       <c r="D2">
         <v>-20.7181341</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>51</v>
@@ -401,10 +439,16 @@
       <c r="D3">
         <v>-20.718280199999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>52</v>
@@ -415,10 +459,16 @@
       <c r="D4">
         <v>-20.718208099999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>53</v>
@@ -429,10 +479,16 @@
       <c r="D5">
         <v>-20.718135100000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>54</v>
@@ -443,10 +499,16 @@
       <c r="D6">
         <v>-20.718062100000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>55</v>
@@ -457,10 +519,16 @@
       <c r="D7">
         <v>-20.71799</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -471,10 +539,16 @@
       <c r="D8">
         <v>-20.7175692</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>41</v>
@@ -485,10 +559,16 @@
       <c r="D9">
         <v>-20.7182812</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>42</v>
@@ -499,10 +579,16 @@
       <c r="D10">
         <v>-20.718209099999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>43</v>
@@ -513,10 +599,16 @@
       <c r="D11">
         <v>-20.718136099999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>44</v>
@@ -527,10 +619,16 @@
       <c r="D12">
         <v>-20.717771899999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>45</v>
@@ -541,10 +639,16 @@
       <c r="D13">
         <v>-20.717699799999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>46</v>
@@ -555,10 +659,16 @@
       <c r="D14">
         <v>-20.717627700000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>47</v>
@@ -569,10 +679,16 @@
       <c r="D15">
         <v>-20.717568199999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>32</v>
@@ -583,10 +699,16 @@
       <c r="D16">
         <v>-20.718132099999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>33</v>
@@ -597,10 +719,16 @@
       <c r="D17">
         <v>-20.718063099999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>34</v>
@@ -611,10 +739,16 @@
       <c r="D18">
         <v>-20.717991000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>35</v>
@@ -625,10 +759,16 @@
       <c r="D19">
         <v>-20.717918900000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>36</v>
@@ -639,10 +779,16 @@
       <c r="D20">
         <v>-20.7178459</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>37</v>
@@ -653,10 +799,16 @@
       <c r="D21">
         <v>-20.7177729</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>38</v>
@@ -667,10 +819,16 @@
       <c r="D22">
         <v>-20.717700799999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>39</v>
@@ -681,10 +839,16 @@
       <c r="D23">
         <v>-20.717628699999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -695,10 +859,16 @@
       <c r="D24">
         <v>-20.717624699999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -709,10 +879,16 @@
       <c r="D25">
         <v>-20.717565199999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -723,10 +899,16 @@
       <c r="D26">
         <v>-20.7177699</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -737,10 +919,16 @@
       <c r="D27">
         <v>-20.7176978</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -751,10 +939,13 @@
       <c r="D28">
         <v>-20.717625699999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -765,10 +956,13 @@
       <c r="D29">
         <v>-20.7175662</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -779,10 +973,13 @@
       <c r="D30">
         <v>-20.718277199999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -793,10 +990,13 @@
       <c r="D31">
         <v>-20.718205099999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -807,10 +1007,13 @@
       <c r="D32">
         <v>-20.7176267</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>17</v>
@@ -821,10 +1024,13 @@
       <c r="D33">
         <v>-20.717567200000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>18</v>
@@ -835,10 +1041,13 @@
       <c r="D34">
         <v>-20.718059100000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>19</v>
@@ -849,10 +1058,13 @@
       <c r="D35">
         <v>-20.717987000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>20</v>
@@ -863,10 +1075,13 @@
       <c r="D36">
         <v>-20.7179149</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B37">
         <v>21</v>
@@ -877,10 +1092,13 @@
       <c r="D37">
         <v>-20.7178419</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>22</v>
@@ -891,10 +1109,13 @@
       <c r="D38">
         <v>-20.717768899999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B39">
         <v>23</v>
@@ -905,10 +1126,13 @@
       <c r="D39">
         <v>-20.717696799999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -919,10 +1143,13 @@
       <c r="D40">
         <v>-20.717915900000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -933,10 +1160,13 @@
       <c r="D41">
         <v>-20.717842900000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -947,10 +1177,13 @@
       <c r="D42">
         <v>-20.7180611</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B43">
         <v>11</v>
@@ -961,10 +1194,13 @@
       <c r="D43">
         <v>-20.717988999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B44">
         <v>12</v>
@@ -975,10 +1211,13 @@
       <c r="D44">
         <v>-20.717916899999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>13</v>
@@ -989,10 +1228,13 @@
       <c r="D45">
         <v>-20.717843899999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>14</v>
@@ -1003,10 +1245,13 @@
       <c r="D46">
         <v>-20.717770900000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>15</v>
@@ -1017,10 +1262,13 @@
       <c r="D47">
         <v>-20.717698800000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1031,10 +1279,13 @@
       <c r="D48">
         <v>-20.7176948</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1045,10 +1296,13 @@
       <c r="D49">
         <v>-20.7176227</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -1059,10 +1313,13 @@
       <c r="D50">
         <v>-20.717563200000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -1073,10 +1330,13 @@
       <c r="D51">
         <v>-20.7182782</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -1087,10 +1347,13 @@
       <c r="D52">
         <v>-20.7182061</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -1101,10 +1364,13 @@
       <c r="D53">
         <v>-20.718133099999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -1115,10 +1381,13 @@
       <c r="D54">
         <v>-20.718060099999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -1129,10 +1398,13 @@
       <c r="D55">
         <v>-20.717987999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B56">
         <v>457</v>
@@ -1143,10 +1415,13 @@
       <c r="D56">
         <v>-20.717984999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B57">
         <v>458</v>
@@ -1157,10 +1432,13 @@
       <c r="D57">
         <v>-20.717912900000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B58">
         <v>459</v>
@@ -1171,10 +1449,13 @@
       <c r="D58">
         <v>-20.717839900000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B59">
         <v>460</v>
@@ -1185,10 +1466,13 @@
       <c r="D59">
         <v>-20.717766900000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B60">
         <v>449</v>
@@ -1199,10 +1483,13 @@
       <c r="D60">
         <v>-20.7182742</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B61">
         <v>450</v>
@@ -1213,10 +1500,13 @@
       <c r="D61">
         <v>-20.718202099999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B62">
         <v>451</v>
@@ -1227,10 +1517,13 @@
       <c r="D62">
         <v>-20.718129099999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B63">
         <v>452</v>
@@ -1241,10 +1534,13 @@
       <c r="D63">
         <v>-20.718056099999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B64">
         <v>453</v>
@@ -1255,10 +1551,13 @@
       <c r="D64">
         <v>-20.717984000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B65">
         <v>454</v>
@@ -1269,10 +1568,13 @@
       <c r="D65">
         <v>-20.717911900000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B66">
         <v>455</v>
@@ -1283,10 +1585,13 @@
       <c r="D66">
         <v>-20.7178389</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B67">
         <v>456</v>
@@ -1297,10 +1602,13 @@
       <c r="D67">
         <v>-20.718057099999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B68">
         <v>441</v>
@@ -1311,10 +1619,13 @@
       <c r="D68">
         <v>-20.7181301</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B69">
         <v>442</v>
@@ -1325,10 +1636,13 @@
       <c r="D69">
         <v>-20.718276199999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B70">
         <v>443</v>
@@ -1339,10 +1653,13 @@
       <c r="D70">
         <v>-20.718204100000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B71">
         <v>444</v>
@@ -1353,10 +1670,13 @@
       <c r="D71">
         <v>-20.718131100000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B72">
         <v>445</v>
@@ -1367,10 +1687,13 @@
       <c r="D72">
         <v>-20.7180581</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B73">
         <v>446</v>
@@ -1381,10 +1704,13 @@
       <c r="D73">
         <v>-20.717986</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B74">
         <v>447</v>
@@ -1395,10 +1721,13 @@
       <c r="D74">
         <v>-20.717913899999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B75">
         <v>448</v>
@@ -1409,10 +1738,13 @@
       <c r="D75">
         <v>-20.717840899999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B76">
         <v>433</v>
@@ -1423,10 +1755,13 @@
       <c r="D76">
         <v>-20.717621699999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B77">
         <v>434</v>
@@ -1437,10 +1772,13 @@
       <c r="D77">
         <v>-20.7175622</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B78">
         <v>435</v>
@@ -1451,10 +1789,13 @@
       <c r="D78">
         <v>-20.717767899999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B79">
         <v>436</v>
@@ -1465,10 +1806,13 @@
       <c r="D79">
         <v>-20.717695800000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B80">
         <v>437</v>
@@ -1479,10 +1823,13 @@
       <c r="D80">
         <v>-20.717623700000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B81">
         <v>438</v>
@@ -1493,10 +1840,13 @@
       <c r="D81">
         <v>-20.717564200000002</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B82">
         <v>439</v>
@@ -1507,10 +1857,13 @@
       <c r="D82">
         <v>-20.718275200000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B83">
         <v>440</v>
@@ -1521,10 +1874,13 @@
       <c r="D83">
         <v>-20.7182031</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B84">
         <v>425</v>
@@ -1535,10 +1891,13 @@
       <c r="D84">
         <v>-20.718878700000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B85">
         <v>426</v>
@@ -1549,10 +1908,13 @@
       <c r="D85">
         <v>-20.718806600000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B86">
         <v>427</v>
@@ -1563,10 +1925,13 @@
       <c r="D86">
         <v>-20.7187345</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B87">
         <v>428</v>
@@ -1577,10 +1942,13 @@
       <c r="D87">
         <v>-20.719096799999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B88">
         <v>429</v>
@@ -1591,10 +1959,13 @@
       <c r="D88">
         <v>-20.719024699999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B89">
         <v>430</v>
@@ -1605,10 +1976,13 @@
       <c r="D89">
         <v>-20.718951700000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B90">
         <v>431</v>
@@ -1619,10 +1993,13 @@
       <c r="D90">
         <v>-20.7177659</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B91">
         <v>432</v>
@@ -1633,10 +2010,13 @@
       <c r="D91">
         <v>-20.717693799999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B92">
         <v>417</v>
@@ -1647,10 +2027,13 @@
       <c r="D92">
         <v>-20.7190257</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B93">
         <v>418</v>
@@ -1661,10 +2044,13 @@
       <c r="D93">
         <v>-20.718952699999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B94">
         <v>419</v>
@@ -1675,10 +2061,13 @@
       <c r="D94">
         <v>-20.718879699999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B95">
         <v>420</v>
@@ -1689,10 +2078,13 @@
       <c r="D95">
         <v>-20.718807600000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B96">
         <v>421</v>
@@ -1703,10 +2095,13 @@
       <c r="D96">
         <v>-20.718735500000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B97">
         <v>422</v>
@@ -1717,10 +2112,13 @@
       <c r="D97">
         <v>-20.7188807</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B98">
         <v>423</v>
@@ -1731,10 +2129,13 @@
       <c r="D98">
         <v>-20.718808599999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B99">
         <v>424</v>
@@ -1745,10 +2146,13 @@
       <c r="D99">
         <v>-20.718736499999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B100">
         <v>409</v>
@@ -1759,10 +2163,13 @@
       <c r="D100">
         <v>-20.718948699999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B101">
         <v>410</v>
@@ -1773,10 +2180,13 @@
       <c r="D101">
         <v>-20.718875700000002</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B102">
         <v>411</v>
@@ -1787,10 +2197,13 @@
       <c r="D102">
         <v>-20.718803600000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B103">
         <v>412</v>
@@ -1801,10 +2214,13 @@
       <c r="D103">
         <v>-20.718731500000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B104">
         <v>413</v>
@@ -1815,10 +2231,13 @@
       <c r="D104">
         <v>-20.718876699999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B105">
         <v>414</v>
@@ -1829,10 +2248,13 @@
       <c r="D105">
         <v>-20.718804599999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B106">
         <v>415</v>
@@ -1843,10 +2265,13 @@
       <c r="D106">
         <v>-20.718732500000002</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B107">
         <v>416</v>
@@ -1857,10 +2282,13 @@
       <c r="D107">
         <v>-20.7190978</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B108">
         <v>401</v>
@@ -1871,10 +2299,16 @@
       <c r="D108">
         <v>-20.719095800000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B109">
         <v>402</v>
@@ -1885,10 +2319,16 @@
       <c r="D109">
         <v>-20.719023700000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B110">
         <v>403</v>
@@ -1899,10 +2339,16 @@
       <c r="D110">
         <v>-20.718950700000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B111">
         <v>404</v>
@@ -1913,10 +2359,16 @@
       <c r="D111">
         <v>-20.7188777</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B112">
         <v>405</v>
@@ -1927,10 +2379,16 @@
       <c r="D112">
         <v>-20.7188056</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B113">
         <v>406</v>
@@ -1941,10 +2399,16 @@
       <c r="D113">
         <v>-20.718733499999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B114">
         <v>407</v>
@@ -1955,10 +2419,16 @@
       <c r="D114">
         <v>-20.7190938</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B115">
         <v>408</v>
@@ -1969,10 +2439,16 @@
       <c r="D115">
         <v>-20.719021699999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B116">
         <v>303</v>
@@ -1983,10 +2459,16 @@
       <c r="D116">
         <v>-20.718811599999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B117">
         <v>304</v>
@@ -1997,10 +2479,16 @@
       <c r="D117">
         <v>-20.718739500000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B118">
         <v>305</v>
@@ -2011,10 +2499,16 @@
       <c r="D118">
         <v>-20.7188847</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B119">
         <v>306</v>
@@ -2025,10 +2519,16 @@
       <c r="D119">
         <v>-20.7188126</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B120">
         <v>307</v>
@@ -2039,10 +2539,16 @@
       <c r="D120">
         <v>-20.718740499999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B121">
         <v>398</v>
@@ -2053,10 +2559,16 @@
       <c r="D121">
         <v>-20.719094800000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B122">
         <v>399</v>
@@ -2067,10 +2579,16 @@
       <c r="D122">
         <v>-20.7190227</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B123">
         <v>400</v>
@@ -2081,10 +2599,16 @@
       <c r="D123">
         <v>-20.7189497</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B124">
         <v>295</v>
@@ -2095,10 +2619,16 @@
       <c r="D124">
         <v>-20.7187375</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B125">
         <v>296</v>
@@ -2109,10 +2639,16 @@
       <c r="D125">
         <v>-20.719102800000002</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B126">
         <v>297</v>
@@ -2123,10 +2659,16 @@
       <c r="D126">
         <v>-20.719030700000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B127">
         <v>298</v>
@@ -2137,10 +2679,16 @@
       <c r="D127">
         <v>-20.718957700000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B128">
         <v>299</v>
@@ -2151,10 +2699,16 @@
       <c r="D128">
         <v>-20.719101800000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B129">
         <v>300</v>
@@ -2165,10 +2719,16 @@
       <c r="D129">
         <v>-20.7190297</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B130">
         <v>301</v>
@@ -2179,10 +2739,16 @@
       <c r="D130">
         <v>-20.7189567</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B131">
         <v>302</v>
@@ -2193,10 +2759,16 @@
       <c r="D131">
         <v>-20.718883699999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B132">
         <v>287</v>
@@ -2207,10 +2779,16 @@
       <c r="D132">
         <v>-20.719098800000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B133">
         <v>288</v>
@@ -2221,10 +2799,16 @@
       <c r="D133">
         <v>-20.719026700000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B134">
         <v>289</v>
@@ -2236,9 +2820,9 @@
         <v>-20.7189537</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B135">
         <v>290</v>
@@ -2250,9 +2834,9 @@
         <v>-20.719099799999999</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B136">
         <v>291</v>
@@ -2264,9 +2848,9 @@
         <v>-20.719027700000002</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B137">
         <v>292</v>
@@ -2278,9 +2862,9 @@
         <v>-20.718954700000001</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B138">
         <v>293</v>
@@ -2292,9 +2876,9 @@
         <v>-20.718881700000001</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B139">
         <v>294</v>
@@ -2306,9 +2890,9 @@
         <v>-20.7188096</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B140">
         <v>56</v>
@@ -2320,9 +2904,9 @@
         <v>-20.7179179</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B141">
         <v>57</v>
@@ -2334,9 +2918,9 @@
         <v>-20.717844899999999</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B142">
         <v>281</v>
@@ -2348,9 +2932,9 @@
         <v>-20.718882700000002</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B143">
         <v>282</v>
@@ -2362,9 +2946,9 @@
         <v>-20.718810600000001</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B144">
         <v>283</v>
@@ -2378,7 +2962,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B145">
         <v>284</v>
@@ -2392,7 +2976,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B146">
         <v>285</v>
@@ -2406,7 +2990,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B147">
         <v>286</v>
@@ -2420,7 +3004,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B148">
         <v>48</v>
@@ -2434,7 +3018,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B149">
         <v>49</v>
@@ -2447,6 +3031,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F149" xr:uid="{F39CC383-D4D5-4DDE-A9F6-A68206E969A5}">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>